--- a/biology/Zoologie/Cucullia_argentea/Cucullia_argentea.xlsx
+++ b/biology/Zoologie/Cucullia_argentea/Cucullia_argentea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucullia argentea, la Noctuelle argentée, est une espèce d'insectes lépidoptères (papillons) de la famille des Noctuidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurasiatique : de l'Espagne et de la Scandinavie jusqu'à l'Est de l'Asie[1]. Localisée en France : littoral languedocien.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurasiatique : de l'Espagne et de la Scandinavie jusqu'à l'Est de l'Asie. Localisée en France : littoral languedocien.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Papillon d'une envergure de 33 à 40 mm environ ; dessus blanc argenté orné d'un réseau de bandes vertes à l'aile antérieure. 
 Chenille vert terne avec des lignes dorsales jaunâtres et des taches rosées sur les flancs.
@@ -574,7 +590,9 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille se nourrit de fleurs ou de graines de diverses espèces d'armoises (Artemisia vulgaris, Artemisia campestris).
 </t>
@@ -605,7 +623,9 @@
           <t>Phénologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Vol de juin à août en une génération.
 </t>
@@ -636,9 +656,11 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France : bords d'étangs littoraux, arrière-dunes et probablement dans des friches sablonneuses[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France : bords d'étangs littoraux, arrière-dunes et probablement dans des friches sablonneuses.
 </t>
         </is>
       </c>
